--- a/Data/Test MQ/DPV Analysis/Analysis Files/compiledAnalysis_3.xlsx
+++ b/Data/Test MQ/DPV Analysis/Analysis Files/compiledAnalysis_3.xlsx
@@ -480,20 +480,20 @@
         <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.0892640714285716</v>
+        <v>-0.08926407142857151</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.08926407142857157</v>
+        <v>-0.08926407142857151</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
         <v>-0.112</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.02805895398608865</v>
+        <v>-0.02855876768707474</v>
       </c>
     </row>
     <row r="3">
@@ -501,20 +501,20 @@
         <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.1020021666666667</v>
+        <v>-0.1020021666666666</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.08958018994114514</v>
+        <v>-0.08941358537414974</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.01242197672552159</v>
+        <v>-0.0125885812925169</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
         <v>-0.224</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.6715980165864103</v>
+        <v>-0.6767627581632658</v>
       </c>
     </row>
     <row r="4">
@@ -522,20 +522,20 @@
         <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.111904380952381</v>
+        <v>-0.1119043809523809</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.08989630845371871</v>
+        <v>-0.08956309931972797</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.02200807249866225</v>
+        <v>-0.02234128163265292</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
         <v>-0.324</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.02043114901016586</v>
+        <v>-0.02976100476190476</v>
       </c>
     </row>
     <row r="5">
@@ -546,17 +546,17 @@
         <v>-0.1182713809523809</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.09021242696629228</v>
+        <v>-0.0897126132653062</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.02805895398608865</v>
+        <v>-0.02855876768707474</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
         <v>-0.372</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.004222511235955018</v>
+        <v>-0.007106599319727902</v>
       </c>
     </row>
     <row r="6">
@@ -567,17 +567,17 @@
         <v>-0.118269619047619</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.09052854547886584</v>
+        <v>-0.08986212721088443</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.0277410735687532</v>
+        <v>-0.02840749183673461</v>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="n">
         <v>-0.42</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-0.01991516185125743</v>
+        <v>-0.02543941854636597</v>
       </c>
     </row>
     <row r="7">
@@ -588,14 +588,18 @@
         <v>-0.1156028571428572</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.09084466399143941</v>
+        <v>-0.09001164115646267</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.02475819315141778</v>
-      </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
+        <v>-0.02559121598639452</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-0.01590048917748901</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -605,10 +609,10 @@
         <v>-0.1136689523809525</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.09116078250401298</v>
+        <v>-0.0901611551020409</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.0225081698769395</v>
+        <v>-0.02350779727891159</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -622,10 +626,10 @@
         <v>-0.1140668095238096</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.09147690101658654</v>
+        <v>-0.09031066904761913</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.02258990850722309</v>
+        <v>-0.0237561404761905</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -639,10 +643,10 @@
         <v>-0.1148624761904763</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.09179301952916011</v>
+        <v>-0.09046018299319736</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.02306945666131617</v>
+        <v>-0.02440229319727892</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -656,10 +660,10 @@
         <v>-0.1202615238095239</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.09210913804173368</v>
+        <v>-0.09060969693877559</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.02815238576779022</v>
+        <v>-0.02965182687074831</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -673,10 +677,10 @@
         <v>-0.126458761904762</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.09242525655430725</v>
+        <v>-0.09075921088435382</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.03403350535045471</v>
+        <v>-0.03569955102040817</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -690,10 +694,10 @@
         <v>-0.1282588095238096</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.09274137506688081</v>
+        <v>-0.09090872482993205</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.0355174344569288</v>
+        <v>-0.03735008469387756</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -707,10 +711,10 @@
         <v>-0.1355279047619048</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.09305749357945438</v>
+        <v>-0.09105823877551028</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.04247041118245047</v>
+        <v>-0.04446966598639457</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -724,10 +728,10 @@
         <v>-0.1464647142857144</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.09337361209202795</v>
+        <v>-0.09120775272108851</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.05309110219368644</v>
+        <v>-0.05525696156462588</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -741,10 +745,10 @@
         <v>-0.1632645238095239</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.09368973060460151</v>
+        <v>-0.09135726666666674</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.06957479320492241</v>
+        <v>-0.07190725714285717</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -758,10 +762,10 @@
         <v>-0.1771995238095239</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.09400584911717508</v>
+        <v>-0.09150678061224497</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.08319367469234881</v>
+        <v>-0.08569274319727894</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -775,10 +779,10 @@
         <v>-0.1933952857142858</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.09432196762974865</v>
+        <v>-0.0916562945578232</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.09907331808453712</v>
+        <v>-0.1017389911564626</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -792,10 +796,10 @@
         <v>-0.2105980476190477</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.09463808614232222</v>
+        <v>-0.09180580850340143</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1159599614767255</v>
+        <v>-0.1187922391156463</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -809,10 +813,10 @@
         <v>-0.236732142857143</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.09495420465489578</v>
+        <v>-0.09195532244897967</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1417779382022472</v>
+        <v>-0.1447768204081633</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -826,10 +830,10 @@
         <v>-0.2707310952380954</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.09527032316746935</v>
+        <v>-0.0921048363945579</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.175460772070626</v>
+        <v>-0.1786262588435375</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -843,10 +847,10 @@
         <v>-0.312396285714286</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.09558644168004292</v>
+        <v>-0.09225435034013613</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.216809844034243</v>
+        <v>-0.2201419353741498</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -860,10 +864,10 @@
         <v>-0.3563292380952383</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.09590256019261649</v>
+        <v>-0.09240386428571436</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2604266779026218</v>
+        <v>-0.263925373809524</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -877,10 +881,10 @@
         <v>-0.3991283809523812</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.09621867870519005</v>
+        <v>-0.09255337823129259</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3029097022471912</v>
+        <v>-0.3065750027210886</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -894,10 +898,10 @@
         <v>-0.451464285714286</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.09653479721776362</v>
+        <v>-0.09270289217687082</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.3549294884965224</v>
+        <v>-0.3587613935374152</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -911,10 +915,10 @@
         <v>-0.4994625238095242</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.09685091573033719</v>
+        <v>-0.09285240612244905</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.4026116080791869</v>
+        <v>-0.4066101176870752</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -928,10 +932,10 @@
         <v>-0.5445284761904765</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.09716703424291076</v>
+        <v>-0.09300192006802728</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4473614419475658</v>
+        <v>-0.4515265561224492</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -945,10 +949,10 @@
         <v>-0.5890645238095241</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.09748315275548432</v>
+        <v>-0.09315143401360551</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.4915813710540398</v>
+        <v>-0.4959130897959186</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -959,13 +963,13 @@
         <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.6361998571428574</v>
+        <v>-0.6361998571428575</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.09779927126805789</v>
+        <v>-0.09330094795918374</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.5384005858747996</v>
+        <v>-0.5428989091836738</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -979,10 +983,10 @@
         <v>-0.6807976666666669</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.09811538978063146</v>
+        <v>-0.09345046190476197</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.5826822768860354</v>
+        <v>-0.5873472047619048</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -996,10 +1000,10 @@
         <v>-0.7260660000000003</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.09843150829320502</v>
+        <v>-0.09359997585034022</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.6276344917067953</v>
+        <v>-0.6324660241496601</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1010,13 +1014,13 @@
         <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.7579263809523815</v>
+        <v>-0.7579263809523814</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.09874762680577859</v>
+        <v>-0.09374948979591843</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.659178754146603</v>
+        <v>-0.6641768911564629</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1027,13 +1031,13 @@
         <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.7706617619047624</v>
+        <v>-0.7706617619047625</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.09906374531835216</v>
+        <v>-0.09389900374149668</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.6715980165864103</v>
+        <v>-0.6767627581632658</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1047,10 +1051,10 @@
         <v>-0.7704625238095244</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.09937986383092573</v>
+        <v>-0.09404851768707491</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.6710826599785986</v>
+        <v>-0.6764140061224495</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1064,10 +1068,10 @@
         <v>-0.756065571428572</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.0996959823434993</v>
+        <v>-0.09419803163265314</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.6563695890850727</v>
+        <v>-0.6618675397959188</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1081,10 +1085,10 @@
         <v>-0.7235935238095241</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1000121008560729</v>
+        <v>-0.09434754557823137</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.6235814229534513</v>
+        <v>-0.6292459782312928</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1095,13 +1099,13 @@
         <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.6830002857142859</v>
+        <v>-0.6830002857142861</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1003282193686464</v>
+        <v>-0.0944970595238096</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.5826720663456395</v>
+        <v>-0.5885032261904765</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1115,10 +1119,10 @@
         <v>-0.6333991904761909</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.10064433788122</v>
+        <v>-0.09464657346938783</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.5327548525949709</v>
+        <v>-0.538752617006803</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1132,10 +1136,10 @@
         <v>-0.5836040952380956</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.1009604563937936</v>
+        <v>-0.09479608741496606</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.4826436388443021</v>
+        <v>-0.4888080078231296</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1149,10 +1153,10 @@
         <v>-0.5355389523809527</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.1012765749063671</v>
+        <v>-0.09494560136054429</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.4342623774745856</v>
+        <v>-0.4405933510204084</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1166,10 +1170,10 @@
         <v>-0.4860741428571431</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1015926934189407</v>
+        <v>-0.09509511530612252</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.3844814494382024</v>
+        <v>-0.3909790275510206</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1183,10 +1187,10 @@
         <v>-0.4298663333333336</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1019088119315143</v>
+        <v>-0.09524462925170075</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.3279575214018193</v>
+        <v>-0.3346217040816328</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1200,10 +1204,10 @@
         <v>-0.3659971904761908</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1022249304440878</v>
+        <v>-0.09539414319727899</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.263772260032103</v>
+        <v>-0.2706030472789118</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1217,10 +1221,10 @@
         <v>-0.3069236190476193</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1025410489566614</v>
+        <v>-0.09554365714285722</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.2043825700909579</v>
+        <v>-0.211379961904762</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1234,10 +1238,10 @@
         <v>-0.2611902857142859</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.102857167469235</v>
+        <v>-0.09569317108843545</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1583331182450509</v>
+        <v>-0.1654971146258504</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1251,10 +1255,10 @@
         <v>-0.2344612380952382</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1031732859818085</v>
+        <v>-0.09584268503401368</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1312879521134297</v>
+        <v>-0.1386185530612246</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1268,10 +1272,10 @@
         <v>-0.2120685238095239</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1034894044943821</v>
+        <v>-0.09599219897959191</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1085791193151418</v>
+        <v>-0.116076324829932</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1285,10 +1289,10 @@
         <v>-0.1946016666666667</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1038055230069557</v>
+        <v>-0.09614171292517014</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.09079614365971106</v>
+        <v>-0.09845995374149659</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1302,10 +1306,10 @@
         <v>-0.1732016666666668</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1041216415195292</v>
+        <v>-0.09629122687074837</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.06908002514713751</v>
+        <v>-0.07691043979591838</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1319,10 +1323,10 @@
         <v>-0.1597310000000001</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1044377600321028</v>
+        <v>-0.0964407408163266</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.05529323996789733</v>
+        <v>-0.06329025918367352</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1336,10 +1340,10 @@
         <v>-0.1433953809523811</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1047538785446764</v>
+        <v>-0.09659025476190483</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.03864150240770468</v>
+        <v>-0.04680512619047622</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1353,10 +1357,10 @@
         <v>-0.1415306666666668</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1050699970572499</v>
+        <v>-0.09673976870748306</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.03646066960941687</v>
+        <v>-0.04479089795918374</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1370,10 +1374,10 @@
         <v>-0.1252662857142858</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1053861155698235</v>
+        <v>-0.09688928265306129</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.01988017014446233</v>
+        <v>-0.02837700306122454</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1387,10 +1391,10 @@
         <v>-0.1212656666666667</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1057022340823971</v>
+        <v>-0.09703879659863952</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.01556343258426965</v>
+        <v>-0.02422687006802719</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1404,10 +1408,10 @@
         <v>-0.1191340476190477</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.1060183525949706</v>
+        <v>-0.09718831054421775</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.01311569502407701</v>
+        <v>-0.0219457370748299</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1421,10 +1425,10 @@
         <v>-0.1226648571428572</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1063344711075442</v>
+        <v>-0.09733782448979598</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.01633038603531296</v>
+        <v>-0.0253270326530612</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1438,10 +1442,10 @@
         <v>-0.1260630952380953</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1066505896201178</v>
+        <v>-0.09748733843537422</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.0194125056179775</v>
+        <v>-0.02857575680272106</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1455,10 +1459,10 @@
         <v>-0.1273978571428572</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1069667081326913</v>
+        <v>-0.09763685238095245</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.02043114901016586</v>
+        <v>-0.02976100476190476</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1472,10 +1476,10 @@
         <v>-0.1197292857142858</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1072828266452649</v>
+        <v>-0.09778636632653068</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.01244645906902091</v>
+        <v>-0.02194291938775512</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1489,10 +1493,10 @@
         <v>-0.114063142857143</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1075989451578385</v>
+        <v>-0.09793588027210891</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.00646419769930448</v>
+        <v>-0.01612726258503405</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1506,10 +1510,10 @@
         <v>-0.106863380952381</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.107915063670412</v>
+        <v>-0.09808539421768714</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.001051682718030994</v>
+        <v>-0.008777986734693904</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1523,10 +1527,10 @@
         <v>-0.1021295714285715</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1082311821829856</v>
+        <v>-0.09823490816326538</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.006101610754414094</v>
+        <v>-0.003894663265306131</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1540,10 +1544,10 @@
         <v>-0.1076669047619049</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1085473006955592</v>
+        <v>-0.0983844221088436</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.0008803959336543266</v>
+        <v>-0.009282482653061253</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1557,10 +1561,10 @@
         <v>-0.1096015238095239</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1088634192081328</v>
+        <v>-0.09853393605442183</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.0007381046013911069</v>
+        <v>-0.01106758775510204</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1574,10 +1578,10 @@
         <v>-0.1114005238095238</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1091795377207063</v>
+        <v>-0.09868345000000006</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.002220986088817531</v>
+        <v>-0.01271707380952378</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1591,10 +1595,10 @@
         <v>-0.1093331904761905</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1094956562332799</v>
+        <v>-0.09883296394557831</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.0001624657570894056</v>
+        <v>-0.01050022653061218</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1608,10 +1612,10 @@
         <v>-0.1094641428571429</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1098117747458534</v>
+        <v>-0.09898247789115652</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.0003476318887105923</v>
+        <v>-0.01048166496598635</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1625,10 +1629,10 @@
         <v>-0.1039328571428572</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.110127893258427</v>
+        <v>-0.09913199183673477</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.006195036115569846</v>
+        <v>-0.004800865306122393</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1642,10 +1646,10 @@
         <v>-0.1031344285714286</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1104440117710006</v>
+        <v>-0.09928150578231298</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.007309583199571937</v>
+        <v>-0.003852922789115643</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1659,10 +1663,10 @@
         <v>-0.1065376190476191</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1107601302835741</v>
+        <v>-0.09943101972789123</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.004222511235955018</v>
+        <v>-0.007106599319727902</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1676,10 +1680,10 @@
         <v>-0.09960152380952386</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1110762487961477</v>
+        <v>-0.09958053367346946</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.01147472498662386</v>
+        <v>-2.099013605440236e-05</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1690,13 +1694,13 @@
         <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.09973004761904766</v>
+        <v>-0.09973004761904769</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1113923673087213</v>
+        <v>-0.09973004761904769</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.01166231968967363</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1710,10 +1714,10 @@
         <v>-0.1046600476190477</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1117084858212948</v>
+        <v>-0.1006599724310778</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.007048438202247181</v>
+        <v>-0.004000075187969909</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1727,10 +1731,10 @@
         <v>-0.1075911428571429</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1120246043338684</v>
+        <v>-0.1015898972431078</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.004433461476725506</v>
+        <v>-0.006001245614035075</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1744,10 +1748,10 @@
         <v>-0.1077267142857143</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.112340722846442</v>
+        <v>-0.1025198220551379</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.004614008560727648</v>
+        <v>-0.005206892230576424</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1761,10 +1765,10 @@
         <v>-0.1183322380952382</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1126568413590155</v>
+        <v>-0.103449746867168</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.005675396736222652</v>
+        <v>-0.01488249122807023</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1778,10 +1782,10 @@
         <v>-0.1111346190476191</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1129729598715891</v>
+        <v>-0.1043796716791981</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.001838340823969969</v>
+        <v>-0.006754947368421083</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1792,13 +1796,13 @@
         <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1174684761904762</v>
+        <v>-0.1174684761904763</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1132890783841627</v>
+        <v>-0.1053095964912281</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.004179397806313559</v>
+        <v>-0.01215887969924813</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1812,10 +1816,10 @@
         <v>-0.1207988095238096</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1136051968967363</v>
+        <v>-0.1062395213032582</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.007193612627073326</v>
+        <v>-0.01455928822055139</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1829,10 +1833,10 @@
         <v>-0.1231298095238096</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1139213154093098</v>
+        <v>-0.1071694461152883</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.009208494114499755</v>
+        <v>-0.01596036340852132</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1846,10 +1850,10 @@
         <v>-0.1277321428571429</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1142374339218834</v>
+        <v>-0.1080993709273183</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.01349470893525952</v>
+        <v>-0.01963277192982456</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1863,10 +1867,10 @@
         <v>-0.1344687142857144</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.114553552434457</v>
+        <v>-0.1090292957393484</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.01991516185125743</v>
+        <v>-0.02543941854636597</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1880,10 +1884,10 @@
         <v>-0.1297390952380953</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1148696709470305</v>
+        <v>-0.1099592205513785</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.01486942429106483</v>
+        <v>-0.01977987468671685</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1897,10 +1901,10 @@
         <v>-0.1324759523809525</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1151857894596041</v>
+        <v>-0.1108891453634086</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.01729016292134841</v>
+        <v>-0.02158680701754392</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1914,10 +1918,10 @@
         <v>-0.1278743333333335</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1155019079721777</v>
+        <v>-0.1118190701754386</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.01237242536115579</v>
+        <v>-0.01605526315789481</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1931,10 +1935,10 @@
         <v>-0.1272712380952382</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1158180264847512</v>
+        <v>-0.1127489949874687</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.01145321161048696</v>
+        <v>-0.01452224310776946</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1945,13 +1949,13 @@
         <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.127332380952381</v>
+        <v>-0.1273323809523811</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1161341449973248</v>
+        <v>-0.1136789197994988</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.01119823595505623</v>
+        <v>-0.01365346115288227</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1965,10 +1969,10 @@
         <v>-0.1263965714285715</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1164502635098984</v>
+        <v>-0.1146088446115289</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.009946307918673125</v>
+        <v>-0.01178772681704263</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1982,10 +1986,10 @@
         <v>-0.1225940952380953</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1167663820224719</v>
+        <v>-0.1155387694235589</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.005827713215623351</v>
+        <v>-0.007055325814536342</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1999,10 +2003,10 @@
         <v>-0.1205964761904762</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1170825005350455</v>
+        <v>-0.116468694235589</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.003513975655430726</v>
+        <v>-0.004127781954887208</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2019,7 +2023,7 @@
         <v>-0.1173986190476191</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2033,10 +2037,10 @@
         <v>-0.1195342380952382</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1195342380952382</v>
+        <v>-0.119576696969697</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>4.245887445887553e-05</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2050,10 +2054,10 @@
         <v>-0.1290690476190477</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1290690476190477</v>
+        <v>-0.1217547748917749</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>-0.007314272727272753</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2067,10 +2071,10 @@
         <v>-0.1368022380952382</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1368022380952382</v>
+        <v>-0.1239328528138529</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0</v>
+        <v>-0.01286938528138529</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2084,10 +2088,10 @@
         <v>-0.1367346190476191</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1367346190476191</v>
+        <v>-0.1261109307359308</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0</v>
+        <v>-0.01062368831168831</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2101,10 +2105,10 @@
         <v>-0.1394644761904763</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1394644761904763</v>
+        <v>-0.1282890086580087</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0</v>
+        <v>-0.01117546753246756</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2118,10 +2122,10 @@
         <v>-0.1418594285714286</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1418594285714286</v>
+        <v>-0.1304670865800867</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0</v>
+        <v>-0.01139234199134193</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2135,10 +2139,10 @@
         <v>-0.1381282857142858</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1381282857142858</v>
+        <v>-0.1326451645021646</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>-0.005483121212121189</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2152,10 +2156,10 @@
         <v>-0.1502650000000001</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1502650000000001</v>
+        <v>-0.1348232424242426</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0</v>
+        <v>-0.01544175757575747</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2166,13 +2170,13 @@
         <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1529018095238096</v>
+        <v>-0.1529018095238095</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1529018095238096</v>
+        <v>-0.1370013203463205</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0</v>
+        <v>-0.01590048917748901</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2186,10 +2190,10 @@
         <v>-0.1504005238095239</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1504005238095239</v>
+        <v>-0.1391793982683985</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0</v>
+        <v>-0.01122112554112539</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2223,7 +2227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2252,7 +2256,7 @@
         <v>-0.112</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.02805895398608865</v>
+        <v>-0.02855876768707474</v>
       </c>
     </row>
     <row r="3">
@@ -2260,7 +2264,7 @@
         <v>-0.224</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.6715980165864103</v>
+        <v>-0.6767627581632658</v>
       </c>
     </row>
     <row r="4">
@@ -2268,7 +2272,7 @@
         <v>-0.324</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.02043114901016586</v>
+        <v>-0.02976100476190476</v>
       </c>
     </row>
     <row r="5">
@@ -2276,7 +2280,7 @@
         <v>-0.372</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.004222511235955018</v>
+        <v>-0.007106599319727902</v>
       </c>
     </row>
     <row r="6">
@@ -2284,7 +2288,15 @@
         <v>-0.42</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.01991516185125743</v>
+        <v>-0.02543941854636597</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>-0.01590048917748901</v>
       </c>
     </row>
   </sheetData>
